--- a/KiemThuTestPhanMem.xlsx
+++ b/KiemThuTestPhanMem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTPoly\KiemThuCoBan\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\Git\DuAn1\DUAN1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74917E-E6B9-44AD-9FA4-4CF1783D70D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BA558-CE52-4432-91F7-E85EA2FBA1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="582">
   <si>
     <t>Nhân Lực</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Kiểm tra hiển thị thông tin người dùng không bị sai font, cở chữ phù hợp?</t>
   </si>
   <si>
-    <t>10 ngày</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trang chủ</t>
-  </si>
-  <si>
     <t>Phương thức</t>
   </si>
   <si>
@@ -149,12 +143,6 @@
     <t>3 ngày</t>
   </si>
   <si>
-    <t>Giao diện phần mềm</t>
-  </si>
-  <si>
-    <t>16/2/2022</t>
-  </si>
-  <si>
     <t>Kiểm tra phân quyền người dùng khi đăng nhập</t>
   </si>
   <si>
@@ -164,36 +152,15 @@
     <t>Hỏi người dùng xác nhận sau đó đóng phần mềm?</t>
   </si>
   <si>
-    <t>Ghi nhớ tài khoản</t>
-  </si>
-  <si>
     <t>Checkbox "Ghi nhớ tài khoản" để ghi nhớ tài khoản cho lần đăng nhập sau</t>
   </si>
   <si>
-    <t xml:space="preserve">Chức năng quản lí bàn </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chức năng thống kê </t>
   </si>
   <si>
-    <t>Chức năng order món ăn</t>
-  </si>
-  <si>
-    <t>Chức năng quản lí nhân viên</t>
-  </si>
-  <si>
     <t>Chức năng quản lí tài khoản (Đăng nhập, đổi mật khẩu, quên mật khẩu)</t>
   </si>
   <si>
-    <t>Chức năng quản lí thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>Kiểm tra xuất file Excel và Pdf</t>
-  </si>
-  <si>
-    <t>Kiểm tra giao diện hiển thị file Excel và Pdf</t>
-  </si>
-  <si>
     <t>CPU: các bộ vi xử lý x64: AMD Opteron, AMD Athlon 64, Intel Xeon với hỗ trợ Intel EM64T, Intel Pentium IV với hỗ trợ EM64T.</t>
   </si>
   <si>
@@ -215,9 +182,6 @@
     <t>2 ngày</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Phân tích yêu cầu khách hàng và đọc hiểu các thành phần của trang web</t>
   </si>
   <si>
@@ -230,54 +194,15 @@
     <t>14/2/2022</t>
   </si>
   <si>
-    <t>Phúc, Chiến</t>
-  </si>
-  <si>
-    <t>Duy</t>
-  </si>
-  <si>
-    <t>Chiến</t>
-  </si>
-  <si>
-    <t>Vĩ</t>
-  </si>
-  <si>
-    <t>Sơn</t>
-  </si>
-  <si>
-    <t>17/2/2022</t>
-  </si>
-  <si>
-    <t>20/2/2022</t>
-  </si>
-  <si>
-    <t>23/2/2022</t>
-  </si>
-  <si>
-    <t>Chiến, Phúc</t>
-  </si>
-  <si>
-    <t>Chức năng quản lí danh mục món ăn và món ăn</t>
-  </si>
-  <si>
     <t>Kiểm tra thiết kế CSDL và các Store Procedure hoặc các trigger, Function có liên quan đến phần mềm….</t>
   </si>
   <si>
-    <t>24/2/2022</t>
-  </si>
-  <si>
     <t>Kiểm tra đăng nhập với tài khoản đúng mật khẩu đúng quyền nhân viên?</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị giao diện đăng nhập có các textbox để nhập liệu và các phím điều hướng?</t>
   </si>
   <si>
-    <t>Nhấp vào "Quên mật khẩu" sau khi đã nhập email nếu email có sở hữu tài khoản sẽ gửi mật khẩu mới random về email đó?</t>
-  </si>
-  <si>
-    <t>Tab Profile</t>
-  </si>
-  <si>
     <t>Thông tin hiển thị</t>
   </si>
   <si>
@@ -320,325 +245,19 @@
     <t>Kiểm tra để trống 1 trong các trường chọn "Đổi mật khẩu", Hiển thị thông báo lỗi?</t>
   </si>
   <si>
-    <t>Tab Order</t>
-  </si>
-  <si>
-    <t>Hiển thị toàn bộ bàn của nhà hàng và các chức năng liên quan?</t>
-  </si>
-  <si>
     <t>Tốc độ đổi mật khẩu phải dưới 3s?</t>
   </si>
   <si>
-    <t>Tốc độ hiển thị danh sách bàn lần đầu là 10s các lần sau phải dưới 5s?</t>
-  </si>
-  <si>
-    <t>Đặt món</t>
-  </si>
-  <si>
-    <t>Tốc độ thêm món cần dưới 3s?</t>
-  </si>
-  <si>
-    <t>Kiểm tra dữ liệu được thêm vào CSDL?</t>
-  </si>
-  <si>
-    <t>Xóa món</t>
-  </si>
-  <si>
-    <t>Cập nhật món</t>
-  </si>
-  <si>
-    <t>Gộp bàn</t>
-  </si>
-  <si>
-    <t>Kiểm tra gộp bàn với bàn thứ 2 trống?</t>
-  </si>
-  <si>
-    <t>Kiểm tra gộp bàn với bàn thứ 2 có người?</t>
-  </si>
-  <si>
-    <t>Kiểm tra giao diện hiển thị danh sách bàn trong combobox?</t>
-  </si>
-  <si>
-    <t>Kiểm tra gộp bàn với chính mình?</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị thông báo lỗi khi gộp bàn thất bại?</t>
-  </si>
-  <si>
-    <t>Chuyển bàn</t>
-  </si>
-  <si>
-    <t>Tốc độ gộp bàn dưới 5s?</t>
-  </si>
-  <si>
-    <t>Kiểm tra chuyển bàn với bàn thứ 2 trống?</t>
-  </si>
-  <si>
-    <t>Kiểm tra chuyển bàn với bàn thứ 2 có người?</t>
-  </si>
-  <si>
-    <t>Kiểm tra chuyển bàn với chính mình?</t>
-  </si>
-  <si>
-    <t>Tốc độ chuyển bàn dưới 5s?</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị thông báo lỗi khi chuyển bàn thất bại?</t>
-  </si>
-  <si>
-    <t>Thanh toán</t>
-  </si>
-  <si>
-    <t>Kiểm tra thanh toán cho bàn có người?</t>
-  </si>
-  <si>
-    <t>Kiểm tra giao diện thanh toán khi chọn thanh toán có hiển thị đủ thông tin của bàn?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thanh toán với bàn trống?</t>
-  </si>
-  <si>
-    <t>Kiểm tra tốc độ thanh toán hóa đơn dưới 10s?</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo thanh toán?</t>
-  </si>
-  <si>
-    <t>Kiểm tra dữ liệu được cập nhật trpng CSDL?</t>
-  </si>
-  <si>
-    <t>Kiểm tra trạng thái bàn được cập nhật thành trống?</t>
-  </si>
-  <si>
-    <t>Kiểm tra hóa đơn được cập nhật thành đã thanh toán?</t>
-  </si>
-  <si>
-    <t>Tab món ăn</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách món ăn và font chữ phù hợp?</t>
-  </si>
-  <si>
-    <t>Thêm món</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm món với để trống 1 trong các trường dữ liệu?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm món khi nhập dữ liệu phù hợp?</t>
-  </si>
-  <si>
-    <t>Cập nhật món ăn</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật hình ảnh món ăn?</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật món ăn khi để trống 1 trong các trường?</t>
-  </si>
-  <si>
-    <t>Tốc độ thêm món cần dưới 5s?</t>
-  </si>
-  <si>
-    <t>Cập nhật món ăn với tên món đã tồn tại?</t>
-  </si>
-  <si>
-    <t>Hiển thị thống báo khi cập nhật?</t>
-  </si>
-  <si>
-    <t>Chọn món cần xóa và chọn xóa. Kiểm tra trường Isdelete trong CSDl được cập nhật về true?</t>
-  </si>
-  <si>
-    <t>Xóa món đã có trong hóa đơn chưa thanh toán. Hiển thị thông báo thất bại?</t>
-  </si>
-  <si>
     <t>Phục hồi món ăn</t>
   </si>
   <si>
-    <t>Hiển thị danh sách món ăn đã xóa và các phím điều hướng?</t>
-  </si>
-  <si>
-    <t>Kiểm tra phục hồi món ăn. Trường Isdelete trong CSDl được cập nhật về false?</t>
-  </si>
-  <si>
-    <t>Hiển thị lại tab món ăn khi chọn thoát?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab danh mục </t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách danh mục món ăn và font chữ phù hợp?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm danh mục với để trống 1 trong các trường dữ liệu?</t>
-  </si>
-  <si>
-    <t>Tốc độ thêm danh mục cần dưới 5s?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm danh mục khi nhập dữ liệu phù hợp?</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật danh mục khi để trống 1 trong các trường?</t>
-  </si>
-  <si>
-    <t>Cập nhật danh mục với tên đã tồn tại?</t>
-  </si>
-  <si>
-    <t>Chọn danh mục cần xóa và chọn xóa. Kiểm tra trường Isdelete trong CSDl được cập nhật về true?</t>
-  </si>
-  <si>
-    <t>Xóa danh mục đã có trong hóa đơn chưa thanh toán. Hiển thị thông báo thất bại?</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách danh mục đã xóa và các phím điều hướng?</t>
-  </si>
-  <si>
-    <t>Kiểm tra phục hồi danh mục. Trường Isdelete trong CSDl được cập nhật về false?</t>
-  </si>
-  <si>
-    <t>Hiển thị lại tab danh mục khi chọn thoát?</t>
-  </si>
-  <si>
-    <t>Thêm danh mục</t>
-  </si>
-  <si>
-    <t>Cập nhật danh mục</t>
-  </si>
-  <si>
-    <t>Xóa danh mục</t>
-  </si>
-  <si>
     <t>Phục hồi danh mục</t>
   </si>
   <si>
-    <t>Tab Bàn</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách bàn và font chữ phù hợp?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm bàn với để trống 1 trong các trường dữ liệu?</t>
-  </si>
-  <si>
-    <t>Tốc độ thêm bàn cần dưới 5s?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm bàn khi nhập dữ liệu phù hợp?</t>
-  </si>
-  <si>
-    <t>Cập nhật bàn</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật bàn khi để trống 1 trong các trường?</t>
-  </si>
-  <si>
-    <t>Cập nhật bàn với tên món đã tồn tại?</t>
-  </si>
-  <si>
-    <t>Chọn bàn cần xóa và chọn xóa. Kiểm tra trường Isdelete trong CSDl được cập nhật về true?</t>
-  </si>
-  <si>
-    <t>Xóa bàn đã có trong hóa đơn chưa thanh toán. Hiển thị thông báo thất bại?</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách bàn đã xóa và các phím điều hướng?</t>
-  </si>
-  <si>
-    <t>Kiểm tra phục hồi bàn. Trường Isdelete trong CSDl được cập nhật về false?</t>
-  </si>
-  <si>
-    <t>Hiển thị lại tab bàn khi chọn thoát?</t>
-  </si>
-  <si>
-    <t>Thêm bàn</t>
-  </si>
-  <si>
-    <t>Xóa bàn</t>
-  </si>
-  <si>
     <t>Phục hồi bàn</t>
   </si>
   <si>
-    <t>Tab nhân viên</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách nhân viên và font chữ phù hợp?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm nhân viên với để trống 1 trong các trường dữ liệu?</t>
-  </si>
-  <si>
-    <t>Tốc độ thêm nhân viên cần dưới 5s?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm nhân viên khi nhập dữ liệu phù hợp?</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật hình ảnh nhan viên?</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật nhân viên khi để trống 1 trong các trường?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thêm nhân viên với email đã tồn tại?</t>
-  </si>
-  <si>
-    <t>Chọn nhân viên cần xóa và chọn xóa. Kiểm tra trường Isdelete trong CSDl được cập nhật về true?</t>
-  </si>
-  <si>
-    <t>Xóa nhân viên đã có trong hóa đơn chưa thanh toán. Hiển thị thông báo thất bại?</t>
-  </si>
-  <si>
-    <t>Kiểm tra xóa nhân viên Admin hoặc nhân viên đang đăng nhập?</t>
-  </si>
-  <si>
     <t>Phục hồi nhân viên</t>
-  </si>
-  <si>
-    <t>Xóa nhan viên</t>
-  </si>
-  <si>
-    <t>Cập nhật nhân viên</t>
-  </si>
-  <si>
-    <t>Thêm nhân viên</t>
-  </si>
-  <si>
-    <t>Hiển thị lại tab nhân viên khi chọn thoát?</t>
-  </si>
-  <si>
-    <t>Kiểm tra phục hồi nhân viên. Trường Isdelete trong CSDl được cập nhật về false?</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách nhan viên đã xóa và các phím điều hướng?</t>
-  </si>
-  <si>
-    <t>Tab thống kê</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách thống kê tổng hợp và phím chức năng?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thống kê chi tiết khi không chọn mã nhân viên?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thống kê chi tiết khi chọn mã nhân viên?</t>
-  </si>
-  <si>
-    <t>Kiểm tra thống kê món ăn?</t>
-  </si>
-  <si>
-    <t>Kiểm tra biểu đồ chart?</t>
-  </si>
-  <si>
-    <t>Tốc độ hiển thị thống kê dưới 1000 records là 5s?</t>
-  </si>
-  <si>
-    <t>Tốc độ hiển thị thống kê trên 1000 records là dưới 10s?</t>
-  </si>
-  <si>
-    <t>Thoống kê</t>
   </si>
   <si>
     <t>Ram</t>
@@ -700,33 +319,6 @@
   </si>
   <si>
     <t>2.Tốc độ load 3s</t>
-  </si>
-  <si>
-    <t>Đặt món khi chưa chọn bàn?</t>
-  </si>
-  <si>
-    <t>Đặt món thành công?</t>
-  </si>
-  <si>
-    <t>Kiểm tra hóa đơn chi tiết khi thêm món thành công</t>
-  </si>
-  <si>
-    <t>Thêm món ăn cho bàn đã có hóa đơn?</t>
-  </si>
-  <si>
-    <t>Thêm món ăn đã có trong hóa đơn?</t>
-  </si>
-  <si>
-    <t>Xóa món ăn khi hóa đơn có trên 2 món ăn?</t>
-  </si>
-  <si>
-    <t>Xóa món khi hóa đơn chỉ có 1 món ăn?</t>
-  </si>
-  <si>
-    <t>Cập nhật số lượng món ăn?</t>
-  </si>
-  <si>
-    <t>Giao diện dánh ách bàn</t>
   </si>
   <si>
     <t>Đặt món khi chưa chọn bàn</t>
@@ -2255,75 +1847,6 @@
   </si>
   <si>
     <t>TEST PASS</t>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nhân viên và Admin đăng nhập mới có thể sử dụng hệ thống</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sau khi đăng nhập phần mềm hiển thị menu theo từng vai trò</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thống kê: tổng hợp và chi tiết doanh thu của nhà hàng theo ngày tháng, ca và nhân viên được chọn.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2349,29 +1872,26 @@
     </r>
   </si>
   <si>
-    <t>+ Bắt buộc đăng nhập mới có thể sử dụng hệ thống</t>
-  </si>
-  <si>
-    <t>+ Phân quyền các tài khoản đăng nhập</t>
-  </si>
-  <si>
-    <t>+ Mật khẩu phải được mã hóa MD5</t>
-  </si>
-  <si>
-    <t>+ Tất cả các form đều phải bắt lỗi</t>
-  </si>
-  <si>
-    <r>
-      <t>ð</t>
-    </r>
+    <t xml:space="preserve">Test case </t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Đề tài: Kiểm thử phần mềm quản lí cửa hàng điện thoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Xác thực khuôn mặt, đăng nhập nhanh bằng mã QR</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>ð</t>
     </r>
     <r>
       <rPr>
@@ -2384,31 +1904,115 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Test case </t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Đề tài: Kiểm thử phần mềm quản lí cửa hàng điện thoại</t>
-  </si>
-  <si>
-    <t>nhiều usescase</t>
-  </si>
-  <si>
-    <t>Quản lí thống kê : thống kê lịch sửa mua hàng, thống kê nhập hàng, thống kê doanh thu</t>
-  </si>
-  <si>
-    <t>Quản lí khách hàng : thêm xóa sửa thông khách hàng</t>
-  </si>
-  <si>
-    <t>Quản lí thông tin nhân viên : thêm xóa sửa thông tin nhân viên, thay đổi quyền truy cập</t>
-  </si>
-  <si>
-    <t>Quản lý đơn hàng: -Chọn đơn hàng vào giỏ hiện tại*, add sản phẩm vào biên lai, tính bill, nhập người dùng, xác nhận đơn hàng ,..</t>
-  </si>
-  <si>
-    <t>Quản lý thông tin điện thoại : thêm xóa sửa thông tin của sản phẩm, tìm kiếm điện thoại, sắp xếp theo tên, giá,…</t>
+    <t xml:space="preserve"> + Phân quyền các tài khoản đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Bắt buộc đăng nhập mới có thể sử dụng hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Tất cả các form đều phải bắt lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Quản lý đơn hàng: Chọn đơn hàng vào giỏ hiện tại*, add sản phẩm vào biên lai, tính bill, nhập người dùng, xác nhận đơn hàng , Xem lịch sử mua hàng,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + View sản phẩm cho khách hàng lựa chọn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Quản lý thông tin điện thoại : thêm xóa sửa thông tin của sản phẩm, tìm kiếm điện thoại, sắp xếp theo tên, giá,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Quản lí thống kê : thống kê lịch sửa mua hàng, thống kê nhập hàng, thống kê doanh thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Quản lí khách hàng : thêm xóa sửa thông khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Quản lí thông tin nhân viên : thêm xóa sửa thông tin nhân viên, thay đổi quyền truy cập</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Sau khi đăng nhập phần mềm hiển thị menu theo từng vai trò</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Nhân viên và Admin đăng nhập mới có thể sử dụng hệ thống</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Quản lí khách hàng</t>
+  </si>
+  <si>
+    <t>Quản lí điện thoại</t>
+  </si>
+  <si>
+    <t>Phiếu nhập</t>
+  </si>
+  <si>
+    <t>Quản lí đơn hàng</t>
+  </si>
+  <si>
+    <t>Cửa hàng</t>
+  </si>
+  <si>
+    <t>Thống kê</t>
+  </si>
+  <si>
+    <t>Đăng nhập nhanh ( đối với nhân viên)</t>
+  </si>
+  <si>
+    <t>Xác thực tài khoản ( đối với quản lí )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Chụp hình cho hồ sơ nhân viên, chụp hình sản phẩm</t>
+  </si>
+  <si>
+    <t>Hậu</t>
+  </si>
+  <si>
+    <t>Sửu</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toán </t>
+  </si>
+  <si>
+    <t>Kha</t>
+  </si>
+  <si>
+    <t>6 ngày</t>
+  </si>
+  <si>
+    <t>Chức năng quản lí sản phẩm</t>
+  </si>
+  <si>
+    <t>Tổng hợp kiểm thử</t>
+  </si>
+  <si>
+    <t>Chức năng chụp hình</t>
+  </si>
+  <si>
+    <t>Chức năng quản lí đơn hàng</t>
+  </si>
+  <si>
+    <t>Chức năng nhân viên</t>
+  </si>
+  <si>
+    <t>Chức năng quản lí</t>
+  </si>
+  <si>
+    <t>Chức năng quản lí khách hàng</t>
+  </si>
+  <si>
+    <t>Chức năng bảo mật( QR code, Nhận diện khuôn mặt)</t>
+  </si>
+  <si>
+    <t>5 ngày</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2022,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2532,12 +2136,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2555,6 +2153,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2713,7 +2318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2815,10 +2420,7 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2842,10 +2444,26 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2857,19 +2475,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5941,106 +5549,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E322A0F1-378B-4325-93A8-22E377DBFC97}">
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="139.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="55" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
-        <v>675</v>
-      </c>
-      <c r="C4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-    </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-    </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-    </row>
-    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-    </row>
-    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
-        <v>682</v>
+    <row r="1" spans="2:2" ht="28.8">
+      <c r="B1" s="45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="18">
+      <c r="B3" s="47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="18">
+      <c r="B4" s="38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="18">
+      <c r="B5" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="18">
+      <c r="B6" s="38" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="18">
+      <c r="B7" s="38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="18">
+      <c r="B8" s="38" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="18">
+      <c r="B9" s="38" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="18">
+      <c r="B10" s="38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="18">
+      <c r="B11" s="38" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="36">
+      <c r="B12" s="38" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="18">
+      <c r="B13" s="37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="18">
+      <c r="B14" s="38" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="18">
+      <c r="B15" s="38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="18">
+      <c r="B16" s="46" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="18">
+      <c r="B17" s="38" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6051,24 +5649,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B21"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="44" customWidth="1"/>
     <col min="4" max="4" width="80.6640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -6076,7 +5674,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>6</v>
@@ -6085,25 +5683,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="31.2">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="42"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
@@ -6111,21 +5709,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="42"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="10" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="42"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
@@ -6133,12 +5731,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
@@ -6146,10 +5744,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="42"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
@@ -6157,10 +5755,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="42"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
@@ -6168,1496 +5766,1249 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.2">
+      <c r="A11" s="48"/>
       <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+        <v>564</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="48"/>
       <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="42"/>
+        <v>565</v>
+      </c>
+      <c r="C12" s="41"/>
       <c r="D12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="48"/>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="10" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="10" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="10" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
-        <v>81</v>
-      </c>
+    <row r="18" spans="1:5">
+      <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="6" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="42"/>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="10" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="10" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="42"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="42"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="41"/>
       <c r="D26" s="10" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="42"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="10" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="48"/>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="6" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="6" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="48"/>
+      <c r="B31" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="6" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="42"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="48"/>
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="41"/>
       <c r="D33" s="10" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="42"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="41"/>
       <c r="D34" s="10" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="42"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="10" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="42"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="10" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="42"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="41"/>
       <c r="D38" s="10" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="42"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="48"/>
+      <c r="B39" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="41"/>
       <c r="D39" s="10" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="42"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="10" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="6" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="48"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="48"/>
+      <c r="B43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="48"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="48"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="48"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="48"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="48"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="48"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="48"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="48"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="48"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="48"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="48"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="48"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="48"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="48"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="48"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="48"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="52"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="52"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="52"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="52"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="52"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="52"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="52"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="52"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="52"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="52"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="52"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="52"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="52"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="50"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="50"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="50"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="50"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="50"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="50"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="50"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="50"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="50"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="50"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="50"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="50"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="50"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="50"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="50"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="50"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="50"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="50"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="50"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="50"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="50"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="50"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="50"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="50"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="50"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="53"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="54"/>
+      <c r="B117" s="49"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="54"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="54"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="54"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="54"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="54"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="54"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="54"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="54"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="54"/>
+      <c r="B126" s="49"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="54"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="54"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="54"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="55"/>
+      <c r="B130" s="49"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="50"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="50"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="50"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="50"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="50"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A136" s="50"/>
+      <c r="B136" s="49"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="50"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="50"/>
+      <c r="B138" s="49"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="50"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="1:5" ht="31.2">
+      <c r="A140" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="50"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="50"/>
+      <c r="B142" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="50"/>
+      <c r="B143" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="50"/>
+      <c r="B144" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="50"/>
+      <c r="B145" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
-      <c r="B71" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="51"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="51"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
-      <c r="B75" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="47"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="47"/>
-      <c r="B78" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="47"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="47"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="47"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="47"/>
-      <c r="B82" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
-      <c r="B84" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="47"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="47"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="47"/>
-      <c r="B88" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="47"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="47"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="47"/>
-      <c r="B91" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="47"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="47"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="47"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
-      <c r="B95" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="47"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="47"/>
-      <c r="B97" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="47"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="49"/>
-      <c r="B101" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="49"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="49"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="49"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="49"/>
-      <c r="B105" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="49"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="49"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="49"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="49"/>
-      <c r="B109" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="49"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="49"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="49"/>
-      <c r="B112" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="49"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="50"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="47"/>
-      <c r="B116" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="47"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="47"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="47"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="47"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="47"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="47"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="47"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B124" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="47"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="47"/>
-      <c r="B126" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="47"/>
-      <c r="B127" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="47"/>
-      <c r="B128" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="47"/>
-      <c r="B129" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="17"/>
+    <row r="146" spans="1:5">
+      <c r="B146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A124:A129"/>
-    <mergeCell ref="A28:A59"/>
+  <mergeCells count="51">
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="A103:A115"/>
+    <mergeCell ref="B132:B139"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="A90:A102"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A44:A75"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A60:A73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A74:A86"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A87:A99"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="A115:A123"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7667,14 +7018,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="4" customWidth="1"/>
@@ -7686,9 +7037,9 @@
     <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="50.1" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -7703,283 +7054,325 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="55.8" customHeight="1">
+      <c r="A2" s="39"/>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
-        <v>44806</v>
+        <v>44958</v>
       </c>
       <c r="E2" s="1">
-        <v>44836</v>
+        <v>44959</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.8" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44959</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44961</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44959</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44961</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44961</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44967</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44867</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44897</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44897</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="73.2" customHeight="1">
+      <c r="A6" s="39"/>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>567</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44968</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44969</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" customHeight="1">
+      <c r="A7" s="39"/>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>568</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44969</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44971</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
+        <v>570</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44969</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44972</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41" t="s">
-        <v>69</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
+        <v>569</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44969</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44972</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.799999999999997" customHeight="1">
+      <c r="A10" s="39"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>571</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44969</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44972</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36.6" customHeight="1">
+      <c r="A11" s="39"/>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>568</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44971</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44974</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.4" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44972</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44975</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.4" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
+      <c r="D13" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44975</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="35.4" customHeight="1">
+      <c r="A14" s="39"/>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>569</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44972</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44975</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>75</v>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35.4" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44972</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44975</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="39"/>
+      <c r="B16" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44975</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44980</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7998,7 +7391,7 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13" style="23" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="23" customWidth="1"/>
@@ -8013,2886 +7406,2886 @@
     <col min="11" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="18">
       <c r="A1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>36</v>
-      </c>
       <c r="H1" s="25" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>548</v>
+        <v>412</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>471</v>
+        <v>335</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>472</v>
+        <v>336</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>530</v>
+        <v>394</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I3" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="86.4" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>549</v>
+        <v>413</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>474</v>
+        <v>338</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>475</v>
+        <v>339</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I4" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="92.4" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>476</v>
+        <v>340</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>477</v>
+        <v>341</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>648</v>
+        <v>512</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>536</v>
+        <v>400</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I5" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="92.4" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>476</v>
+        <v>340</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>477</v>
+        <v>341</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>648</v>
+        <v>512</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>536</v>
+        <v>400</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I6" s="24">
         <v>44849</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="97.8" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>551</v>
+        <v>415</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>516</v>
+        <v>380</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>649</v>
+        <v>513</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>650</v>
+        <v>514</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I7" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="29.4" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>552</v>
+        <v>416</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>478</v>
+        <v>342</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>479</v>
+        <v>343</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I8" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="29.4" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>486</v>
+        <v>350</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>487</v>
+        <v>351</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>488</v>
+        <v>352</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I9" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>554</v>
+        <v>418</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>480</v>
+        <v>344</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>481</v>
+        <v>345</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>482</v>
+        <v>346</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I10" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>555</v>
+        <v>419</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>483</v>
+        <v>347</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>484</v>
+        <v>348</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>481</v>
+        <v>345</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>485</v>
+        <v>349</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I11" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="41.4">
       <c r="A12" s="23" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>490</v>
+        <v>354</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>491</v>
+        <v>355</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>537</v>
+        <v>401</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I12" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>468</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-    </row>
-    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A13" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="23" t="s">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I14" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="27.6">
       <c r="A15" s="23" t="s">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I15" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="23" t="s">
-        <v>559</v>
+        <v>423</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I16" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="55.2">
       <c r="A17" s="23" t="s">
-        <v>560</v>
+        <v>424</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I17" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="55.2">
       <c r="A18" s="23" t="s">
-        <v>561</v>
+        <v>425</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I18" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="55.2">
       <c r="A19" s="23" t="s">
-        <v>562</v>
+        <v>426</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I19" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="69">
       <c r="A20" s="23" t="s">
-        <v>563</v>
+        <v>427</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I20" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="69">
       <c r="A21" s="23" t="s">
-        <v>564</v>
+        <v>428</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I21" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="69">
       <c r="A22" s="23" t="s">
-        <v>565</v>
+        <v>429</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I22" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="41.4">
       <c r="A23" s="23" t="s">
-        <v>566</v>
+        <v>430</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I23" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="55.2">
       <c r="A24" s="23" t="s">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>538</v>
+        <v>402</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I24" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="69">
       <c r="A25" s="23" t="s">
-        <v>568</v>
+        <v>432</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I25" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="27.6">
       <c r="A26" s="23" t="s">
-        <v>569</v>
+        <v>433</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I26" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="41.4">
       <c r="A27" s="23" t="s">
-        <v>570</v>
+        <v>434</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I27" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="41.4">
       <c r="A28" s="23" t="s">
-        <v>571</v>
+        <v>435</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I28" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="41.4">
       <c r="A29" s="23" t="s">
-        <v>572</v>
+        <v>436</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I29" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="69">
       <c r="A30" s="23" t="s">
-        <v>573</v>
+        <v>437</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I30" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="41.4">
       <c r="A31" s="23" t="s">
-        <v>574</v>
+        <v>438</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I31" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="41.4">
       <c r="A32" s="23" t="s">
-        <v>575</v>
+        <v>439</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I32" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="41.4">
       <c r="A33" s="23" t="s">
-        <v>576</v>
+        <v>440</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>534</v>
+        <v>398</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I33" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="69">
       <c r="A34" s="23" t="s">
-        <v>577</v>
+        <v>441</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I34" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="27.6">
       <c r="A35" s="23" t="s">
-        <v>578</v>
+        <v>442</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>539</v>
+        <v>403</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I35" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="41.4">
       <c r="A36" s="23" t="s">
-        <v>579</v>
+        <v>443</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I36" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="27.6">
       <c r="A37" s="23" t="s">
-        <v>580</v>
+        <v>444</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I37" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="69">
       <c r="A38" s="23" t="s">
-        <v>581</v>
+        <v>445</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I38" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-    </row>
-    <row r="40" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="11" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A39" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+    </row>
+    <row r="40" spans="1:10" ht="27.6">
       <c r="A40" s="23" t="s">
-        <v>582</v>
+        <v>446</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I40" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="41.4">
       <c r="A41" s="23" t="s">
-        <v>583</v>
+        <v>447</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I41" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="41.4">
       <c r="A42" s="23" t="s">
-        <v>584</v>
+        <v>448</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I42" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="69">
       <c r="A43" s="23" t="s">
-        <v>585</v>
+        <v>449</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I43" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="55.2">
       <c r="A44" s="23" t="s">
-        <v>586</v>
+        <v>450</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I44" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="41.4">
       <c r="A45" s="23" t="s">
-        <v>587</v>
+        <v>451</v>
       </c>
       <c r="B45" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>325</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>461</v>
       </c>
       <c r="I45" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="41.4">
       <c r="A46" s="23" t="s">
-        <v>588</v>
+        <v>452</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I46" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="55.2">
       <c r="A47" s="23" t="s">
-        <v>589</v>
+        <v>453</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>331</v>
+        <v>195</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>334</v>
+        <v>198</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I47" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="69">
       <c r="A48" s="23" t="s">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I48" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="55.2">
       <c r="A49" s="23" t="s">
-        <v>591</v>
+        <v>455</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I49" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="41.4">
       <c r="A50" s="23" t="s">
-        <v>592</v>
+        <v>456</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I50" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="41.4">
       <c r="A51" s="23" t="s">
-        <v>593</v>
+        <v>457</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I51" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="55.2">
       <c r="A52" s="23" t="s">
-        <v>594</v>
+        <v>458</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I52" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="41.4">
       <c r="A53" s="23" t="s">
-        <v>595</v>
+        <v>459</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I53" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="69">
       <c r="A54" s="23" t="s">
-        <v>596</v>
+        <v>460</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I54" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="41.4">
       <c r="A55" s="23" t="s">
-        <v>597</v>
+        <v>461</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>355</v>
+        <v>219</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I55" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="27.6">
       <c r="A56" s="23" t="s">
-        <v>598</v>
+        <v>462</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>540</v>
+        <v>404</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I56" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="27.6">
       <c r="A57" s="23" t="s">
-        <v>599</v>
+        <v>463</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>363</v>
+        <v>227</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I57" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54" t="s">
-        <v>470</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-    </row>
-    <row r="59" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A58" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+    </row>
+    <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="23" t="s">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>365</v>
+        <v>229</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I59" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="27.6">
       <c r="A60" s="23" t="s">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I60" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="27.6">
       <c r="A61" s="23" t="s">
-        <v>602</v>
+        <v>466</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>370</v>
+        <v>234</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I61" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="27.6">
       <c r="A62" s="23" t="s">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>375</v>
+        <v>239</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I62" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="27.6">
       <c r="A63" s="23" t="s">
-        <v>604</v>
+        <v>468</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>377</v>
+        <v>241</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>378</v>
+        <v>242</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>379</v>
+        <v>243</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I63" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="27.6">
       <c r="A64" s="23" t="s">
-        <v>605</v>
+        <v>469</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>380</v>
+        <v>244</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I64" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="41.4">
       <c r="A65" s="23" t="s">
-        <v>606</v>
+        <v>470</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>383</v>
+        <v>247</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>541</v>
+        <v>405</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I65" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="27.6">
       <c r="A66" s="23" t="s">
-        <v>607</v>
+        <v>471</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>386</v>
+        <v>250</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I66" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="27.6">
       <c r="A67" s="23" t="s">
-        <v>608</v>
+        <v>472</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>389</v>
+        <v>253</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>390</v>
+        <v>254</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>391</v>
+        <v>255</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I67" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="27.6">
       <c r="A68" s="23" t="s">
-        <v>609</v>
+        <v>473</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>393</v>
+        <v>257</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I68" s="24">
         <v>44836</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="11" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-    </row>
-    <row r="70" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="11" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A69" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+    </row>
+    <row r="70" spans="1:10" ht="24.6" customHeight="1">
       <c r="A70" s="23" t="s">
-        <v>610</v>
+        <v>474</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>492</v>
+        <v>356</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>493</v>
+        <v>357</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>494</v>
+        <v>358</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="24.6" customHeight="1">
       <c r="A71" s="23" t="s">
-        <v>611</v>
+        <v>475</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>495</v>
+        <v>359</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>496</v>
+        <v>360</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>497</v>
+        <v>361</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="24.6" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>612</v>
+        <v>476</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>498</v>
+        <v>362</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>499</v>
+        <v>363</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>500</v>
+        <v>364</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="24.6" customHeight="1">
       <c r="A73" s="23" t="s">
-        <v>613</v>
+        <v>477</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>501</v>
+        <v>365</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>493</v>
+        <v>357</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>502</v>
+        <v>366</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="24.6" customHeight="1">
       <c r="A74" s="23" t="s">
-        <v>614</v>
+        <v>478</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>503</v>
+        <v>367</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>493</v>
+        <v>357</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>504</v>
+        <v>368</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="11" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-    </row>
-    <row r="76" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="11" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A75" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+    </row>
+    <row r="76" spans="1:10" ht="56.4" customHeight="1">
       <c r="A76" s="23" t="s">
-        <v>615</v>
+        <v>479</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>506</v>
+        <v>370</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>507</v>
+        <v>371</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>510</v>
+        <v>374</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="43.8" customHeight="1">
       <c r="A77" s="23" t="s">
-        <v>616</v>
+        <v>480</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>508</v>
+        <v>372</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>509</v>
+        <v>373</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="76.2" customHeight="1">
       <c r="A78" s="23" t="s">
-        <v>617</v>
+        <v>481</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>511</v>
+        <v>375</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="69.599999999999994" customHeight="1">
       <c r="A79" s="23" t="s">
-        <v>618</v>
+        <v>482</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>513</v>
+        <v>377</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>514</v>
+        <v>378</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>515</v>
+        <v>379</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="11" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="54" t="s">
-        <v>464</v>
-      </c>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-    </row>
-    <row r="81" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="11" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A80" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+    </row>
+    <row r="81" spans="1:10" ht="41.4">
       <c r="A81" s="23" t="s">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>396</v>
+        <v>260</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I81" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="41.4">
       <c r="A82" s="23" t="s">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>401</v>
+        <v>265</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I82" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="41.4">
       <c r="A83" s="23" t="s">
-        <v>621</v>
+        <v>485</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>405</v>
+        <v>269</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I83" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="55.2">
       <c r="A84" s="23" t="s">
-        <v>622</v>
+        <v>486</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I84" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="55.2">
       <c r="A85" s="23" t="s">
-        <v>623</v>
+        <v>487</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>410</v>
+        <v>274</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>411</v>
+        <v>275</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I85" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="55.2">
       <c r="A86" s="23" t="s">
-        <v>624</v>
+        <v>488</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>412</v>
+        <v>276</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>414</v>
+        <v>278</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I86" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="27.6">
       <c r="A87" s="23" t="s">
-        <v>625</v>
+        <v>489</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>415</v>
+        <v>279</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>416</v>
+        <v>280</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I87" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="27.6">
       <c r="A88" s="23" t="s">
-        <v>626</v>
+        <v>490</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>418</v>
+        <v>282</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>419</v>
+        <v>283</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="I88" s="24">
         <v>44867</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="11" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="54" t="s">
-        <v>465</v>
-      </c>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-    </row>
-    <row r="90" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="11" customFormat="1" ht="22.8" customHeight="1">
+      <c r="A89" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+    </row>
+    <row r="90" spans="1:10" ht="27.6">
       <c r="A90" s="23" t="s">
-        <v>627</v>
+        <v>491</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>420</v>
+        <v>284</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>421</v>
+        <v>285</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I90" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="41.4">
       <c r="A91" s="23" t="s">
-        <v>628</v>
+        <v>492</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I91" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="41.4">
       <c r="A92" s="23" t="s">
-        <v>629</v>
+        <v>493</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>424</v>
+        <v>288</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>425</v>
+        <v>289</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I92" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="55.2">
       <c r="A93" s="23" t="s">
-        <v>630</v>
+        <v>494</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>427</v>
+        <v>291</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>428</v>
+        <v>292</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>429</v>
+        <v>293</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I93" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="41.4">
       <c r="A94" s="23" t="s">
-        <v>631</v>
+        <v>495</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>430</v>
+        <v>294</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>431</v>
+        <v>295</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>432</v>
+        <v>296</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I94" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="41.4">
       <c r="A95" s="23" t="s">
-        <v>632</v>
+        <v>496</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>433</v>
+        <v>297</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>434</v>
+        <v>298</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>435</v>
+        <v>299</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I95" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="69">
       <c r="A96" s="23" t="s">
-        <v>633</v>
+        <v>497</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>437</v>
+        <v>301</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>438</v>
+        <v>302</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I96" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="27.6">
       <c r="A97" s="23" t="s">
-        <v>634</v>
+        <v>498</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>439</v>
+        <v>303</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>440</v>
+        <v>304</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I97" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="27.6">
       <c r="A98" s="23" t="s">
-        <v>635</v>
+        <v>499</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>441</v>
+        <v>305</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>419</v>
+        <v>283</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="I98" s="24">
         <v>44897</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="54" t="s">
-        <v>466</v>
-      </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-    </row>
-    <row r="100" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A99" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+    </row>
+    <row r="100" spans="1:10" ht="55.2">
       <c r="A100" s="23" t="s">
-        <v>636</v>
+        <v>500</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>443</v>
+        <v>307</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I100" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="55.2">
       <c r="A101" s="23" t="s">
-        <v>637</v>
+        <v>501</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>445</v>
+        <v>309</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="41.4">
       <c r="A102" s="23" t="s">
-        <v>638</v>
+        <v>502</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>447</v>
+        <v>311</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>448</v>
+        <v>312</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="55.2">
       <c r="A103" s="23" t="s">
-        <v>639</v>
+        <v>503</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>450</v>
+        <v>314</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>451</v>
+        <v>315</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="55.2">
       <c r="A104" s="23" t="s">
-        <v>640</v>
+        <v>504</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>452</v>
+        <v>316</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>453</v>
+        <v>317</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>454</v>
+        <v>318</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="41.4">
       <c r="A105" s="23" t="s">
-        <v>641</v>
+        <v>505</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>455</v>
+        <v>319</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>456</v>
+        <v>320</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="27.6">
       <c r="A106" s="23" t="s">
-        <v>642</v>
+        <v>506</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="27.6">
       <c r="A107" s="23" t="s">
-        <v>643</v>
+        <v>507</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>459</v>
+        <v>323</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>419</v>
+        <v>283</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="54" t="s">
-        <v>517</v>
-      </c>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-    </row>
-    <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="21.6" customHeight="1">
+      <c r="A108" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="B108" s="56"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+    </row>
+    <row r="109" spans="1:10" ht="27.6">
       <c r="A109" s="23" t="s">
-        <v>644</v>
+        <v>508</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>518</v>
+        <v>382</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>519</v>
+        <v>383</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I109" s="23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="124.2">
       <c r="A110" s="23" t="s">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>520</v>
+        <v>384</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>521</v>
+        <v>385</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>522</v>
+        <v>386</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="138">
       <c r="A111" s="23" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>524</v>
+        <v>388</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>525</v>
+        <v>389</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="23" t="s">
-        <v>647</v>
+        <v>511</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>526</v>
+        <v>390</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="I112" s="23" t="s">
-        <v>529</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -10922,7 +10315,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="14.6640625" style="26" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="26" customWidth="1"/>
@@ -10936,260 +10329,260 @@
     <col min="12" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="22.8" customHeight="1">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" s="29" t="s">
-        <v>545</v>
+        <v>409</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>546</v>
+        <v>410</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="100.2" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>476</v>
+        <v>340</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>477</v>
+        <v>341</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>662</v>
+        <v>526</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>648</v>
+        <v>512</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>655</v>
+        <v>519</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I2" s="27">
         <v>44836</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.8" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="s">
-        <v>663</v>
+        <v>527</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>652</v>
+        <v>516</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>653</v>
+        <v>517</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>654</v>
+        <v>518</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I3" s="27">
         <v>44836</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="61.2" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="s">
-        <v>659</v>
+        <v>523</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>657</v>
+        <v>521</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I4" s="30">
         <v>44867</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="41.4">
       <c r="A5" s="22" t="s">
-        <v>576</v>
+        <v>440</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
-        <v>660</v>
+        <v>524</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>534</v>
+        <v>398</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I5" s="30">
         <v>44867</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6">
       <c r="A6" s="22" t="s">
-        <v>578</v>
+        <v>442</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="s">
-        <v>661</v>
+        <v>525</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>539</v>
+        <v>403</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I6" s="30">
         <v>44867</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="41.4">
       <c r="A7" s="22" t="s">
-        <v>598</v>
+        <v>462</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="s">
-        <v>665</v>
+        <v>529</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>664</v>
+        <v>528</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>540</v>
+        <v>404</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I7" s="30">
         <v>44897</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>606</v>
+        <v>470</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22" t="s">
-        <v>666</v>
+        <v>530</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>541</v>
+        <v>405</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="I8" s="30">
         <v>44897</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>473</v>
+        <v>337</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>656</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -11206,7 +10599,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
@@ -11214,20 +10607,20 @@
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
-        <v>667</v>
+        <v>531</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>668</v>
+        <v>532</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="33" t="s">
-        <v>670</v>
+        <v>534</v>
       </c>
       <c r="C3" s="33">
         <v>100</v>
@@ -11236,9 +10629,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="35" t="s">
-        <v>671</v>
+        <v>535</v>
       </c>
       <c r="C4" s="35">
         <v>100</v>
@@ -11248,9 +10641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="35" t="s">
-        <v>672</v>
+        <v>536</v>
       </c>
       <c r="C5" s="35">
         <f>C3-C4</f>
@@ -11261,9 +10654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="35" t="s">
-        <v>673</v>
+        <v>537</v>
       </c>
       <c r="C6" s="35">
         <v>7</v>
@@ -11273,9 +10666,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="35" t="s">
-        <v>674</v>
+        <v>538</v>
       </c>
       <c r="C7" s="35">
         <f>C4-C6</f>

--- a/KiemThuTestPhanMem.xlsx
+++ b/KiemThuTestPhanMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\Git\DuAn1\DUAN1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BA558-CE52-4432-91F7-E85EA2FBA1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97AAD08-EA97-4BDA-81E2-A6BF0E5CA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="573">
   <si>
     <t>Nhân Lực</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Thoát</t>
   </si>
   <si>
-    <t>Quên mật khẩu</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng nhập với tài khoản đúng mật khẩu đúng quyền admin?</t>
-  </si>
-  <si>
     <t>Tốc độ kiểm tra tài khoản mật khẩu?</t>
   </si>
   <si>
@@ -86,36 +80,15 @@
     <t>Kiểm tra sự tồn tại của tài khoản?</t>
   </si>
   <si>
-    <t>Kiểm tra mật khẩu khớp với tài khoản?</t>
-  </si>
-  <si>
     <t>Kiểm tra giao diện thông báo lỗi đăng nhập?</t>
   </si>
   <si>
-    <t>GUI</t>
-  </si>
-  <si>
     <t>Giao diện</t>
   </si>
   <si>
     <t>Các nút điều hướng</t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị đầy đủ thông tin và ảnh đại diện người dùng?</t>
-  </si>
-  <si>
-    <t>Đảm bảo các nút điều hướng chính phải có Icon minh họa?</t>
-  </si>
-  <si>
-    <t>Kiểm tra độ trể khi nhấp vào phím điều hướng?</t>
-  </si>
-  <si>
-    <t>Kiểm tra phím điều hướng có đưa người dùng đến đúng giao diện không?</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị thông tin người dùng không bị sai font, cở chữ phù hợp?</t>
-  </si>
-  <si>
     <t>Phương thức</t>
   </si>
   <si>
@@ -146,15 +119,6 @@
     <t>Kiểm tra phân quyền người dùng khi đăng nhập</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhấp vào "Quên mật khẩu" khi không nhập email </t>
-  </si>
-  <si>
-    <t>Hỏi người dùng xác nhận sau đó đóng phần mềm?</t>
-  </si>
-  <si>
-    <t>Checkbox "Ghi nhớ tài khoản" để ghi nhớ tài khoản cho lần đăng nhập sau</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chức năng thống kê </t>
   </si>
   <si>
@@ -197,55 +161,19 @@
     <t>Kiểm tra thiết kế CSDL và các Store Procedure hoặc các trigger, Function có liên quan đến phần mềm….</t>
   </si>
   <si>
-    <t>Kiểm tra đăng nhập với tài khoản đúng mật khẩu đúng quyền nhân viên?</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị giao diện đăng nhập có các textbox để nhập liệu và các phím điều hướng?</t>
-  </si>
-  <si>
     <t>Thông tin hiển thị</t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị thông tin email đăng nhập và ngày giờ hiện tại?</t>
-  </si>
-  <si>
     <t>Cập nhật thông tin</t>
   </si>
   <si>
-    <t>Kiểm tra cập nhật thông tin cá nhân với tài khoản thường?</t>
-  </si>
-  <si>
-    <t>Không cho cập nhật thông tin với tài khoản Admin?</t>
-  </si>
-  <si>
-    <t>Cập nhật hình ảnh của nhân viên?</t>
-  </si>
-  <si>
     <t>Tad đổi mật khẩu</t>
   </si>
   <si>
-    <t>Hiển thị các textbox để đổi mật khẩu và font chữ màu sắc phù hợp?</t>
-  </si>
-  <si>
     <t>Đổi mật khẩu thành công</t>
   </si>
   <si>
-    <t>Kiểm tra mật khẩu mới được cập nhật vào CSDL và gửi mật khẩu mới về cho email?</t>
-  </si>
-  <si>
-    <t>Chuyển hướng người dùng về trang đăng nhập để đăng nhập lại?</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo đổi mật khẩu thành công?</t>
-  </si>
-  <si>
     <t>Đổi mật khẩu thất bại</t>
-  </si>
-  <si>
-    <t>Kiểm tra để trống 1 trong các trường chọn "Đổi mật khẩu", Hiển thị thông báo lỗi?</t>
-  </si>
-  <si>
-    <t>Tốc độ đổi mật khẩu phải dưới 3s?</t>
   </si>
   <si>
     <t>Phục hồi món ăn</t>
@@ -1961,15 +1889,9 @@
     <t>Thống kê</t>
   </si>
   <si>
-    <t>Đăng nhập nhanh ( đối với nhân viên)</t>
-  </si>
-  <si>
     <t>Xác thực tài khoản ( đối với quản lí )</t>
   </si>
   <si>
-    <t xml:space="preserve"> + Chụp hình cho hồ sơ nhân viên, chụp hình sản phẩm</t>
-  </si>
-  <si>
     <t>Hậu</t>
   </si>
   <si>
@@ -2013,6 +1935,57 @@
   </si>
   <si>
     <t>5 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Chức năng Scan hình ảnh ( QR code, ảnh sản phẩm, ảnh nhân viên )</t>
+  </si>
+  <si>
+    <t>Chưa có TestCase</t>
+  </si>
+  <si>
+    <t>Có sử dụng được QR code hay không ?</t>
+  </si>
+  <si>
+    <t>Xác thực đúng với tài khoản trên database không ?</t>
+  </si>
+  <si>
+    <t>Kiểm tra vai trò sau khi đăng nhập đúng với tài khoản hay không ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra giao diện textbox để input </t>
+  </si>
+  <si>
+    <t>Nhận diện khuôn mặt đạt trên 80% không ?</t>
+  </si>
+  <si>
+    <t>Kiểm tra close cửa sổ nhân diện khuôn mặt</t>
+  </si>
+  <si>
+    <t>Kiểm tra close cửa sổ nhân diện QR Code</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian timout và close cửa sổ nhân diện QR Code</t>
+  </si>
+  <si>
+    <t>Kiểm tra thời gian timout và close cửa sổ nhân diện khuôn mặt</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi nhập form ( tiếng việt, kí tự đặt biệt , thiếu trường)</t>
+  </si>
+  <si>
+    <t>Kiểm tra xác thực với QR Code</t>
+  </si>
+  <si>
+    <t>Đăng nhập nhanh ( đối với nhân viên )</t>
+  </si>
+  <si>
+    <t>Kiểm tra camera nhận diện QR code có hoạt động không ?</t>
+  </si>
+  <si>
+    <t>Kiểm tra camera nhân diện khuôn mặt có hoạt động không ?</t>
+  </si>
+  <si>
+    <t>Kiểm tra xác thực với khuôn mặt đạt trên 80%</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2279,15 +2252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2318,7 +2282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2332,9 +2296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,10 +2305,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2359,22 +2320,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2426,19 +2381,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2451,31 +2394,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5552,7 +5510,7 @@
   <dimension ref="B1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5562,83 +5520,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="28.8">
-      <c r="B1" s="45" t="s">
-        <v>542</v>
+      <c r="B1" s="38" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="18">
-      <c r="B3" s="47" t="s">
-        <v>544</v>
+      <c r="B3" s="40" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="18">
-      <c r="B4" s="38" t="s">
-        <v>555</v>
+      <c r="B4" s="35" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="18">
-      <c r="B5" s="38" t="s">
-        <v>554</v>
+      <c r="B5" s="35" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="18">
-      <c r="B6" s="38" t="s">
-        <v>553</v>
+      <c r="B6" s="35" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="18">
-      <c r="B7" s="38" t="s">
-        <v>552</v>
+      <c r="B7" s="35" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="18">
-      <c r="B8" s="38" t="s">
-        <v>551</v>
+      <c r="B8" s="35" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18">
-      <c r="B9" s="38" t="s">
-        <v>550</v>
+      <c r="B9" s="35" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="18">
-      <c r="B10" s="38" t="s">
-        <v>549</v>
+      <c r="B10" s="35" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="18">
-      <c r="B11" s="38" t="s">
-        <v>566</v>
+      <c r="B11" s="35" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="36">
-      <c r="B12" s="38" t="s">
-        <v>548</v>
+      <c r="B12" s="35" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="18">
-      <c r="B13" s="37" t="s">
-        <v>539</v>
+      <c r="B13" s="34" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="18">
-      <c r="B14" s="38" t="s">
-        <v>546</v>
+      <c r="B14" s="35" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="18">
-      <c r="B15" s="38" t="s">
-        <v>545</v>
+      <c r="B15" s="35" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="18">
-      <c r="B16" s="46" t="s">
-        <v>543</v>
+      <c r="B16" s="39" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="18">
-      <c r="B17" s="38" t="s">
-        <v>547</v>
+      <c r="B17" s="35" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5649,1366 +5607,1217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="21.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1">
+      <c r="A2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="45"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="45"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="45"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="45"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="45"/>
+      <c r="B9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="45"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="45"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="53" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="45"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="45"/>
+      <c r="B16" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="45"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="45"/>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="45"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="45"/>
+      <c r="B21" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="45"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="45"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="45"/>
+      <c r="B26" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="45"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="45"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="45"/>
+      <c r="B31" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="45"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="45"/>
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="45"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="45"/>
+      <c r="B36" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="45"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="45"/>
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="45"/>
+      <c r="B40" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="45"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="45"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="45"/>
+      <c r="B44" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="45"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="45"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="45"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="45"/>
+      <c r="B48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="45"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="45"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="45"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="45"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="45"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="45"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="45"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="45"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="45"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="45"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="45"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="45"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="45"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="45"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="45"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="45"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="45"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="45"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="45"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="45"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="45"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="45"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="45"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="45"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="45"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="45"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="45"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="45"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="45"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="45"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="45"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="43"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="43"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="43"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="43"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="43"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="43"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="43"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="43"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="43"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="43"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="43"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="43"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="43"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="42"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="42"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="42"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="42"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="42"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="42"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="42"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="42"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="42"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="42"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="42"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="42"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:5" ht="31.2">
+      <c r="A108" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="42"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="31.2">
-      <c r="A2" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="9" t="s">
+      <c r="E109" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="42"/>
+      <c r="B110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="42"/>
+      <c r="B111" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="42"/>
+      <c r="B112" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="42"/>
+      <c r="B113" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="10" t="s">
+      <c r="C113" s="7"/>
+      <c r="D113" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="31.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="48"/>
-      <c r="B12" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="48"/>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="48" t="s">
-        <v>556</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="48" t="s">
-        <v>557</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="48"/>
-      <c r="B28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="48" t="s">
-        <v>559</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="48"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="48"/>
-      <c r="B43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="48" t="s">
-        <v>561</v>
-      </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="48"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="48"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="48"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="48"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="48"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="48"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="48"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="48"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="48"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="48"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="48"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="48"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="48"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="48"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="52"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="52"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="52"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="52"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="52"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="52"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="52"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="52"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="52"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="52"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="52"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="52"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="52"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="50" t="s">
-        <v>563</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="50"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="50"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="50"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="50"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="50"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="50"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="50"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="50"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="50"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="50"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="50"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="50"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="50"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="50"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="50"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="50"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="50"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="50"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="50"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="50"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="50"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="50"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="50"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="50"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="50"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="53"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="54"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="54"/>
-      <c r="B118" s="49"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="54"/>
-      <c r="B119" s="49"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="54"/>
-      <c r="B120" s="49"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="54"/>
-      <c r="B121" s="49"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="54"/>
-      <c r="B122" s="49"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="54"/>
-      <c r="B123" s="49"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="54"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="54"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="54"/>
-      <c r="B126" s="49"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="54"/>
-      <c r="B127" s="49"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="54"/>
-      <c r="B128" s="49"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="54"/>
-      <c r="B129" s="49"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="55"/>
-      <c r="B130" s="49"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="50"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="50"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="50"/>
-      <c r="B133" s="49"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="50"/>
-      <c r="B134" s="49"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="50"/>
-      <c r="B135" s="49"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-    </row>
-    <row r="136" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A136" s="50"/>
-      <c r="B136" s="49"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="6"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="50"/>
-      <c r="B137" s="49"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="6"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="50"/>
-      <c r="B138" s="49"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="50"/>
-      <c r="B139" s="49"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-    </row>
-    <row r="140" spans="1:5" ht="31.2">
-      <c r="A140" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="50"/>
-      <c r="B141" s="49"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="50"/>
-      <c r="B142" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="50"/>
-      <c r="B143" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="50"/>
-      <c r="B144" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="50"/>
-      <c r="B145" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="B146" s="17"/>
+      <c r="B114" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="A103:A115"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="A90:A102"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A44:A75"/>
-    <mergeCell ref="B6:B8"/>
+  <mergeCells count="40">
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="A49:A80"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A81:A94"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="A95:A107"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7018,11 +6827,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7033,13 +6842,13 @@
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.1" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -7054,19 +6863,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="55.8" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="5" t="s">
-        <v>569</v>
+      <c r="A2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>543</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>44958</v>
@@ -7075,19 +6886,21 @@
         <v>44959</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.8" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="5" t="s">
-        <v>570</v>
+      <c r="A3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>544</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>44959</v>
@@ -7096,19 +6909,21 @@
         <v>44961</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="5" t="s">
-        <v>571</v>
+      <c r="A4" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>545</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>44959</v>
@@ -7117,19 +6932,21 @@
         <v>44961</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="5" t="s">
-        <v>567</v>
+      <c r="A5" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>541</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="D5" s="1">
         <v>44961</v>
@@ -7138,19 +6955,21 @@
         <v>44967</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="73.2" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="5" t="s">
-        <v>567</v>
+      <c r="A6" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>541</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>44968</v>
@@ -7159,19 +6978,21 @@
         <v>44969</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="5" t="s">
-        <v>568</v>
+      <c r="A7" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>542</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>44969</v>
@@ -7180,19 +7001,21 @@
         <v>44971</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.4" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
-        <v>570</v>
+      <c r="A8" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>544</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>44969</v>
@@ -7201,19 +7024,21 @@
         <v>44972</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40" t="s">
-        <v>569</v>
+      <c r="A9" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>543</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>44969</v>
@@ -7222,19 +7047,21 @@
         <v>44972</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.799999999999997" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="5" t="s">
-        <v>571</v>
+      <c r="A10" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>545</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>44969</v>
@@ -7243,40 +7070,44 @@
         <v>44972</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="36.6" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="5" t="s">
-        <v>568</v>
+      <c r="A11" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>542</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>44971</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="50">
         <v>44974</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="5" t="s">
-        <v>571</v>
+      <c r="A12" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>545</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>44972</v>
@@ -7285,19 +7116,21 @@
         <v>44975</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="5" t="s">
-        <v>568</v>
+      <c r="A13" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>542</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>44974</v>
@@ -7306,19 +7139,21 @@
         <v>44975</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="35.4" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="5" t="s">
-        <v>569</v>
+      <c r="A14" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>543</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>44972</v>
@@ -7327,19 +7162,21 @@
         <v>44975</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="35.4" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="5" t="s">
-        <v>570</v>
+      <c r="A15" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>544</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>44972</v>
@@ -7348,19 +7185,19 @@
         <v>44975</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="39"/>
-      <c r="B16" s="5" t="s">
-        <v>567</v>
+      <c r="A16" s="2"/>
+      <c r="B16" s="47" t="s">
+        <v>541</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="D16" s="1">
         <v>44975</v>
@@ -7369,11 +7206,23 @@
         <v>44980</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>574</v>
-      </c>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="49"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="49"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="49"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7387,2905 +7236,2905 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="23" style="23" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="13" style="20" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="23" style="20" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" ht="18">
-      <c r="A1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="92.4" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="92.4" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" s="21">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="97.8" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.4" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29.4" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40.200000000000003" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="41.4">
+      <c r="A12" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I12" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" ht="41.4">
+      <c r="A14" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27.6">
+      <c r="A15" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="55.2">
+      <c r="A17" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="55.2">
+      <c r="A18" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="F18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I18" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="55.2">
+      <c r="A19" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="C19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I19" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="69">
+      <c r="A20" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="E20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="F20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="69">
+      <c r="A21" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="C21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="69">
+      <c r="A22" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="41.4">
+      <c r="A23" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="55.2">
+      <c r="A24" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I24" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="69">
+      <c r="A25" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I25" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.6">
+      <c r="A26" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I26" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="41.4">
+      <c r="A27" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="41.4">
+      <c r="A28" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="41.4">
+      <c r="A29" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I29" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="69">
+      <c r="A30" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="41.4">
+      <c r="A31" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I31" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="41.4">
+      <c r="A32" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I32" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="41.4">
+      <c r="A33" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I33" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="69">
+      <c r="A34" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I34" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="27.6">
+      <c r="A35" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I35" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="41.4">
+      <c r="A36" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I36" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="27.6">
+      <c r="A37" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="69">
+      <c r="A38" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I38" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A39" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" ht="27.6">
+      <c r="A40" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I40" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="41.4">
+      <c r="A41" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="41.4">
+      <c r="A42" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="69">
+      <c r="A43" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="55.2">
+      <c r="A44" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="41.4">
+      <c r="A45" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I45" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="41.4">
+      <c r="A46" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I46" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="55.2">
+      <c r="A47" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I47" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="69">
+      <c r="A48" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I48" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="55.2">
+      <c r="A49" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="41.4">
+      <c r="A50" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I50" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="41.4">
+      <c r="A51" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I51" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="55.2">
+      <c r="A52" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I52" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="41.4">
+      <c r="A53" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I53" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="69">
+      <c r="A54" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I54" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="41.4">
+      <c r="A55" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I55" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="27.6">
+      <c r="A56" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="27.6">
+      <c r="A57" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I57" s="21">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A58" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+    </row>
+    <row r="59" spans="1:10" ht="27.6">
+      <c r="A59" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I59" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="27.6">
+      <c r="A60" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I60" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="27.6">
+      <c r="A61" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="27.6">
+      <c r="A62" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I62" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="27.6">
+      <c r="A63" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I63" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="27.6">
+      <c r="A64" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I64" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="41.4">
+      <c r="A65" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I65" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="27.6">
+      <c r="A66" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I66" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="27.6">
+      <c r="A67" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I67" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="27.6">
+      <c r="A68" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I68" s="21">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="10" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A69" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" ht="24.6" customHeight="1">
+      <c r="A70" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="24.6" customHeight="1">
+      <c r="A71" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D71" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="E71" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="I3" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="86.4" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="F71" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="24.6" customHeight="1">
+      <c r="A72" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D72" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="92.4" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="E72" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="F72" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="24.6" customHeight="1">
+      <c r="A73" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B73" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="92.4" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" s="24">
-        <v>44849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="97.8" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I7" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="D73" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="F73" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="24.6" customHeight="1">
+      <c r="A74" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B74" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I8" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="D74" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="10" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A75" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:10" ht="56.4" customHeight="1">
+      <c r="A76" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="F76" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="43.8" customHeight="1">
+      <c r="A77" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="76.2" customHeight="1">
+      <c r="A78" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E78" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I10" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I11" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="41.4">
-      <c r="A12" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="F78" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I78" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="69.599999999999994" customHeight="1">
+      <c r="A79" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E79" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I12" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A13" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-    </row>
-    <row r="14" spans="1:10" ht="41.4">
-      <c r="A14" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="27.6">
-      <c r="A15" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I15" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I16" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="55.2">
-      <c r="A17" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I17" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="55.2">
-      <c r="A18" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I18" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="55.2">
-      <c r="A19" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I19" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="69">
-      <c r="A20" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I20" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="69">
-      <c r="A21" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I21" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="69">
-      <c r="A22" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I22" s="24">
+      <c r="F79" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="10" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A80" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="1:10" ht="41.4">
+      <c r="A81" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I81" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="41.4">
-      <c r="A23" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I23" s="24">
+    <row r="82" spans="1:10" ht="41.4">
+      <c r="A82" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I82" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="55.2">
-      <c r="A24" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I24" s="24">
+    <row r="83" spans="1:10" ht="41.4">
+      <c r="A83" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I83" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="69">
-      <c r="A25" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I25" s="24">
+    <row r="84" spans="1:10" ht="55.2">
+      <c r="A84" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I84" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6">
-      <c r="A26" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I26" s="24">
+    <row r="85" spans="1:10" ht="55.2">
+      <c r="A85" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I85" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="41.4">
-      <c r="A27" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I27" s="24">
+    <row r="86" spans="1:10" ht="55.2">
+      <c r="A86" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I86" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="41.4">
-      <c r="A28" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I28" s="24">
+    <row r="87" spans="1:10" ht="27.6">
+      <c r="A87" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I87" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="41.4">
-      <c r="A29" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I29" s="24">
+    <row r="88" spans="1:10" ht="27.6">
+      <c r="A88" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I88" s="21">
         <v>44867</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="69">
-      <c r="A30" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I30" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="41.4">
-      <c r="A31" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I31" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="41.4">
-      <c r="A32" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I32" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="41.4">
-      <c r="A33" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I33" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="69">
-      <c r="A34" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I34" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="27.6">
-      <c r="A35" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I35" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="41.4">
-      <c r="A36" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I36" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="27.6">
-      <c r="A37" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I37" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="69">
-      <c r="A38" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I38" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A39" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-    </row>
-    <row r="40" spans="1:10" ht="27.6">
-      <c r="A40" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I40" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="41.4">
-      <c r="A41" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I41" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="41.4">
-      <c r="A42" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I42" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="69">
-      <c r="A43" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I43" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="55.2">
-      <c r="A44" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I44" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="41.4">
-      <c r="A45" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I45" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="41.4">
-      <c r="A46" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I46" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="55.2">
-      <c r="A47" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I47" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="69">
-      <c r="A48" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I48" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="55.2">
-      <c r="A49" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I49" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="41.4">
-      <c r="A50" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I50" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="41.4">
-      <c r="A51" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I51" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="55.2">
-      <c r="A52" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I52" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="41.4">
-      <c r="A53" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I53" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="69">
-      <c r="A54" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="B54" s="23" t="s">
+    <row r="89" spans="1:10" s="10" customFormat="1" ht="22.8" customHeight="1">
+      <c r="A89" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="1:10" ht="27.6">
+      <c r="A90" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I54" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="41.4">
-      <c r="A55" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I55" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="27.6">
-      <c r="A56" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I56" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="27.6">
-      <c r="A57" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I57" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-    </row>
-    <row r="59" spans="1:10" ht="27.6">
-      <c r="A59" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I59" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="27.6">
-      <c r="A60" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I60" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="27.6">
-      <c r="A61" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I61" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="27.6">
-      <c r="A62" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="B62" s="23" t="s">
+      <c r="G90" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I90" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="41.4">
+      <c r="A91" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="E91" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I62" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="27.6">
-      <c r="A63" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I63" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="27.6">
-      <c r="A64" s="23" t="s">
+      <c r="F91" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I91" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="41.4">
+      <c r="A92" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B92" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I92" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="55.2">
+      <c r="A93" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I93" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="41.4">
+      <c r="A94" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I94" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="41.4">
+      <c r="A95" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I95" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="69">
+      <c r="A96" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I96" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="27.6">
+      <c r="A97" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I97" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="27.6">
+      <c r="A98" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I98" s="21">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="10" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A99" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+    </row>
+    <row r="100" spans="1:10" ht="55.2">
+      <c r="A100" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I100" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="55.2">
+      <c r="A101" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="41.4">
+      <c r="A102" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I64" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="41.4">
-      <c r="A65" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I65" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="27.6">
-      <c r="A66" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I66" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="27.6">
-      <c r="A67" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I67" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="27.6">
-      <c r="A68" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="23" t="s">
+      <c r="E102" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I102" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="55.2">
+      <c r="A103" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="55.2">
+      <c r="A104" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="41.4">
+      <c r="A105" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="27.6">
+      <c r="A106" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E106" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F68" s="23" t="s">
+      <c r="F106" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I106" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="27.6">
+      <c r="A107" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G68" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I68" s="24">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="11" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A69" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-    </row>
-    <row r="70" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A70" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D70" s="23" t="s">
+      <c r="F107" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I107" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="21.6" customHeight="1">
+      <c r="A108" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+    </row>
+    <row r="109" spans="1:10" ht="27.6">
+      <c r="A109" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F70" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A71" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B71" s="23" t="s">
+      <c r="E109" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="F109" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="124.2">
+      <c r="A110" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="D110" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A72" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="B72" s="23" t="s">
+      <c r="E110" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="F110" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="138">
+      <c r="A111" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="D111" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A73" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" s="23" t="s">
+      <c r="E111" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E73" s="23" t="s">
+      <c r="F111" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I111" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="F73" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I73" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A74" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="B74" s="23" t="s">
+      <c r="D112" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E74" s="23" t="s">
+      <c r="E112" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="F74" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="11" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A75" s="56" t="s">
+      <c r="F112" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I112" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-    </row>
-    <row r="76" spans="1:10" ht="56.4" customHeight="1">
-      <c r="A76" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="43.8" customHeight="1">
-      <c r="A77" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I77" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="76.2" customHeight="1">
-      <c r="A78" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I78" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="69.599999999999994" customHeight="1">
-      <c r="A79" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="11" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A80" s="56" t="s">
-        <v>328</v>
-      </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-    </row>
-    <row r="81" spans="1:10" ht="41.4">
-      <c r="A81" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I81" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="41.4">
-      <c r="A82" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I82" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="41.4">
-      <c r="A83" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I83" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="55.2">
-      <c r="A84" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I84" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="55.2">
-      <c r="A85" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I85" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="55.2">
-      <c r="A86" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I86" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="27.6">
-      <c r="A87" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I87" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="27.6">
-      <c r="A88" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I88" s="24">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="11" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A89" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-    </row>
-    <row r="90" spans="1:10" ht="27.6">
-      <c r="A90" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I90" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="41.4">
-      <c r="A91" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I91" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="41.4">
-      <c r="A92" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I92" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="55.2">
-      <c r="A93" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I93" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="41.4">
-      <c r="A94" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I94" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="41.4">
-      <c r="A95" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H95" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I95" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="69">
-      <c r="A96" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I96" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="27.6">
-      <c r="A97" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I97" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="27.6">
-      <c r="A98" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I98" s="24">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A99" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
-    </row>
-    <row r="100" spans="1:10" ht="55.2">
-      <c r="A100" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I100" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="55.2">
-      <c r="A101" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="41.4">
-      <c r="A102" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G102" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="55.2">
-      <c r="A103" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I103" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="55.2">
-      <c r="A104" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I104" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="41.4">
-      <c r="A105" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="27.6">
-      <c r="A106" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G106" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="27.6">
-      <c r="A107" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I107" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A108" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-    </row>
-    <row r="109" spans="1:10" ht="27.6">
-      <c r="A109" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I109" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="124.2">
-      <c r="A110" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="138">
-      <c r="A111" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G111" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H111" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I111" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H112" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -10317,272 +10166,272 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="14.6640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="27" style="26" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="3" width="14.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27" style="23" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="100.2" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="24">
+        <v>44836</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.8" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="24">
+        <v>44836</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="61.2" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="100.2" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" s="27">
-        <v>44836</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.8" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I3" s="27">
-        <v>44836</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="61.2" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I4" s="30">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4" s="27">
         <v>44867</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>522</v>
+      <c r="J4" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="41.4">
-      <c r="A5" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I5" s="30">
+      <c r="A5" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="27">
         <v>44867</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>520</v>
+      <c r="J5" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.6">
-      <c r="A6" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I6" s="30">
+      <c r="A6" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I6" s="27">
         <v>44867</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>520</v>
+      <c r="J6" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="41.4">
-      <c r="A7" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="A7" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I7" s="27">
+        <v>44897</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="51" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I7" s="30">
+      <c r="G8" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="27">
         <v>44897</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I8" s="30">
-        <v>44897</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>520</v>
+      <c r="J8" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -10608,73 +10457,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>533</v>
+      <c r="B2" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="30">
         <v>100</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="35" t="s">
-        <v>535</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="32">
         <v>100</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="33">
         <f>C3/C4*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="32">
         <f>C3-C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="33">
         <f>D3-D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="32">
         <v>7</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <f>C6/C4*100%</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="32">
         <f>C4-C6</f>
         <v>93</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <f>C7/C4*100%</f>
         <v>0.93</v>
       </c>

--- a/KiemThuTestPhanMem.xlsx
+++ b/KiemThuTestPhanMem.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\Git\DuAn1\DUAN1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97AAD08-EA97-4BDA-81E2-A6BF0E5CA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B81412-246E-42AC-84C6-5C0C129F5ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="12" r:id="rId1"/>
-    <sheet name="Test Design" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Plan" sheetId="1" r:id="rId3"/>
+    <sheet name="Test Plan" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Design" sheetId="2" r:id="rId3"/>
     <sheet name="Test Case" sheetId="9" r:id="rId4"/>
     <sheet name="Test Defect" sheetId="10" r:id="rId5"/>
     <sheet name="Report" sheetId="11" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="576">
   <si>
     <t>Nhân Lực</t>
   </si>
@@ -1986,6 +1986,15 @@
   </si>
   <si>
     <t>Kiểm tra xác thực với khuôn mặt đạt trên 80%</t>
+  </si>
+  <si>
+    <t>Nút thoát hoạt động cân nhắc người dùng, tắt chương trình và các tiến trình liên quan</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>ID TestCase</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2277,12 +2286,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2394,22 +2434,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2424,16 +2455,52 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5606,1232 +5673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E114"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1">
-      <c r="A2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="45"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="45"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="45"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="45"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="45"/>
-      <c r="B9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>566</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="45"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="45"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="53" t="s">
-        <v>569</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="45"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="45"/>
-      <c r="B16" s="51" t="s">
-        <v>540</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="45"/>
-      <c r="B21" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="45"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="45"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="45"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="45"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="45"/>
-      <c r="B31" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="45"/>
-      <c r="B33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="45"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="45"/>
-      <c r="B36" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="45"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="45"/>
-      <c r="B38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="45"/>
-      <c r="B40" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="45"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="45"/>
-      <c r="B44" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="45"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="45"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="45"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="45"/>
-      <c r="B48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="45"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="45"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="45"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="45"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="45"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="45"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="45"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="45"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="45"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="45"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="45"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="45"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="45"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="45"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="45"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="45"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="45"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="45"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="45"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="45"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="45"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="45"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="45"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="45"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="45"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="45"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="45"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="45"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="45"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="45"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="45"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="43"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="43"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="43"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="43"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="43"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="43"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="43"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="43"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="43"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="43"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="43"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="43"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="43"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="42" t="s">
-        <v>539</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="42"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="42"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="42"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="42"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="42"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="42"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="42"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="42"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="42"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="42"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="42"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="1:5" ht="31.2">
-      <c r="A108" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="42"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="42"/>
-      <c r="B110" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="42"/>
-      <c r="B111" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="42"/>
-      <c r="B112" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="42"/>
-      <c r="B113" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="B114" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="A49:A80"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="A95:A107"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6873,7 +5720,7 @@
       <c r="A2" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>543</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6896,7 +5743,7 @@
       <c r="A3" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>544</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6919,7 +5766,7 @@
       <c r="A4" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
         <v>545</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6942,7 +5789,7 @@
       <c r="A5" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>541</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -6965,7 +5812,7 @@
       <c r="A6" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>541</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6988,7 +5835,7 @@
       <c r="A7" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>542</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7011,7 +5858,7 @@
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>544</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -7034,7 +5881,7 @@
       <c r="A9" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>543</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -7057,7 +5904,7 @@
       <c r="A10" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>545</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7080,7 +5927,7 @@
       <c r="A11" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>542</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7089,7 +5936,7 @@
       <c r="D11" s="1">
         <v>44971</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <v>44974</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -7103,7 +5950,7 @@
       <c r="A12" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="44" t="s">
         <v>545</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -7126,7 +5973,7 @@
       <c r="A13" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>542</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -7149,7 +5996,7 @@
       <c r="A14" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>543</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -7172,7 +6019,7 @@
       <c r="A15" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>544</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7193,7 +6040,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>541</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -7213,18 +6060,1367 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="46"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="49"/>
+      <c r="A18" s="46"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="46"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="49"/>
+      <c r="A20" s="46"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F115"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="2" width="21.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1">
+      <c r="A2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="52"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="52"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="52"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="52"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="52"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="52"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="52"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="52"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="52"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="52"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="52"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="52"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="52"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="52"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="52"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="52"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="52"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="52"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="52"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="52"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="52"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="52"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="52"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="52"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="52"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="52"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="52"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="52"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="52"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="52"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="52"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="52"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="52"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="52"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="52"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="52"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="52"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="52"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="52"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="52"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="52"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="52"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="52"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="52"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="52"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="52"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="52"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="52"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="52"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="52"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="52"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="52"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="52"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="52"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="52"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="52"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="52"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="52"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="52"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="52"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="52"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="52"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="52"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="52"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="52"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="52"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="52"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="52"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B82" s="42"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="56"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="56"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="56"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="56"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="56"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="56"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="56"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="56"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="56"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="56"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="56"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="56"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="56"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="54" t="s">
+        <v>539</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="54"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="54"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="54"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="54"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="54"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="54"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="54"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="54"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="54"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="54"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="54"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="54"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="31.2">
+      <c r="A109" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="41"/>
+      <c r="C109" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="54"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="54"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="54"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="54"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="54"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="C115" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="A96:A108"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="A82:A95"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A50:A81"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7235,8 +7431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B21E82-7B17-45A9-9C46-BBB545CF67E0}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
@@ -7288,18 +7484,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -7577,18 +7773,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="20" t="s">
@@ -8265,18 +8461,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" ht="27.6">
       <c r="A40" s="20" t="s">
@@ -8777,18 +8973,18 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="20" t="s">
@@ -9060,18 +9256,18 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="10" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" spans="1:10" ht="24.6" customHeight="1">
       <c r="A70" s="20" t="s">
@@ -9204,18 +9400,18 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="10" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
     </row>
     <row r="76" spans="1:10" ht="56.4" customHeight="1">
       <c r="A76" s="20" t="s">
@@ -9322,18 +9518,18 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="10" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
     </row>
     <row r="81" spans="1:10" ht="41.4">
       <c r="A81" s="20" t="s">
@@ -9544,18 +9740,18 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="10" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="B89" s="46"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
     </row>
     <row r="90" spans="1:10" ht="27.6">
       <c r="A90" s="20" t="s">
@@ -9792,18 +9988,18 @@
       </c>
     </row>
     <row r="99" spans="1:10" s="10" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="46"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
     </row>
     <row r="100" spans="1:10" ht="55.2">
       <c r="A100" s="20" t="s">
@@ -10014,18 +10210,18 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
     </row>
     <row r="109" spans="1:10" ht="27.6">
       <c r="A109" s="20" t="s">

--- a/KiemThuTestPhanMem.xlsx
+++ b/KiemThuTestPhanMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\Git\DuAn1\DUAN1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B81412-246E-42AC-84C6-5C0C129F5ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548428B1-8A4D-49B2-BFCA-65D13B84E37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="608">
   <si>
     <t>Nhân Lực</t>
   </si>
@@ -1995,6 +1995,102 @@
   </si>
   <si>
     <t>ID TestCase</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị thông tin người dùng không bị sai font, cở chữ phù hợp?</t>
+  </si>
+  <si>
+    <t>Đảm bảo các nút điều hướng chính phải có Icon minh họa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra chuyển hướng các component có phù hợp ? </t>
+  </si>
+  <si>
+    <t>Kiểm tra màu sắc có phù hợp với yêu cầu khách hàng ?</t>
+  </si>
+  <si>
+    <t>Kiểm tra độ trể khi nhấp vào phím điều hướng?</t>
+  </si>
+  <si>
+    <t>Kiểm tra phím điều hướng có đưa người dùng đến đúng giao diện không?</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị thông tin đăng nhập và ngày giờ hiện tại?</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị thông tin thông báo, tin tức,…..?</t>
+  </si>
+  <si>
+    <t>Kiểm tra màu nền , font chữ , khoảng cách giữa các text có hợp lý không : GUI</t>
+  </si>
+  <si>
+    <t>Kiểm tra table có hiện lên đầy đủ thông tin : GUI</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm khách hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra xóa khách hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra nếu nhấn nút xóa sẽ hiện thông báo 'Bạn có chắc chắn muốn xóa' : Funtion</t>
+  </si>
+  <si>
+    <t>Kiểm tra nếu xóa khách hàng thành công trong csdl có mất không : Funtion</t>
+  </si>
+  <si>
+    <t>Kiểm tra cập nhật khách hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra search khách hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra lịch sử mua hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra vai trò nhân viên . Nếu đăng nhập role là nhân viên thì nút button sẽ bị ẩn chức năng xóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để tất cả text trống và bấm nút thêm sẽ hiện lên thông báo 'Nhập đầy đủ thông tin' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra nếu thêm email khách hàng đã tồn tại sẽ hiện thông thông báo 'khách hàng đã tồn tại' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra vai trò nhân viên . Nếu đăng nhập role là nhân viên thì nút button sẽ bị ẩn chức năng thêm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra nếu thêm nhân viên sẽ hiện thông báo 'Bạn có muốn thêm khách hàng này ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra nếu thêm khách hàng thành công có đổ vào csdl không </t>
+  </si>
+  <si>
+    <t>Kiểm tra khách hàngn thêm vào phải đúng định dạng giữa các text trên lable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra cập nhật khách hàng khi để trống 1 trong các trường? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo khi cập nhật? </t>
+  </si>
+  <si>
+    <t>Kiểm tra dữ liệu được cập nhật trpng CSDL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra cập nhật nhưng mà sai mã khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra cập nhật luôn mã khách hàng ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra nếu khách hàng không tồn tại sẽ hiện lên thông báo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị khách hàng khi nhập số điện thoại </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông số khách mua hàng </t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2458,31 +2554,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2494,6 +2566,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2501,6 +2579,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6080,11 +6179,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -6118,10 +6217,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
@@ -6131,11 +6230,13 @@
       <c r="E2" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="53"/>
       <c r="D3" s="36" t="s">
         <v>557</v>
@@ -6143,11 +6244,13 @@
       <c r="E3" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="53"/>
       <c r="D4" s="36" t="s">
         <v>557</v>
@@ -6155,11 +6258,13 @@
       <c r="E4" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="53"/>
       <c r="D5" s="36" t="s">
         <v>557</v>
@@ -6167,11 +6272,13 @@
       <c r="E5" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="52"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="53"/>
       <c r="D6" s="36" t="s">
         <v>557</v>
@@ -6179,11 +6286,13 @@
       <c r="E6" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="52"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="53"/>
       <c r="D7" s="36" t="s">
         <v>557</v>
@@ -6191,11 +6300,13 @@
       <c r="E7" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="52"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="53"/>
       <c r="D8" s="36" t="s">
         <v>557</v>
@@ -6203,11 +6314,13 @@
       <c r="E8" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="52"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="53" t="s">
         <v>10</v>
       </c>
@@ -6222,8 +6335,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="53"/>
       <c r="D10" s="36" t="s">
         <v>557</v>
@@ -6236,8 +6349,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="53"/>
       <c r="D11" s="36" t="s">
         <v>557</v>
@@ -6245,11 +6358,13 @@
       <c r="E11" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="53"/>
       <c r="D12" s="36" t="s">
         <v>557</v>
@@ -6257,11 +6372,13 @@
       <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="52"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="53"/>
       <c r="D13" s="36" t="s">
         <v>557</v>
@@ -6269,12 +6386,14 @@
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="61" t="s">
         <v>569</v>
       </c>
       <c r="D14" s="36" t="s">
@@ -6283,24 +6402,28 @@
       <c r="E14" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="52"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="50"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="36" t="s">
         <v>557</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="52"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="51" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="63" t="s">
         <v>540</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -6309,22 +6432,26 @@
       <c r="E16" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="52"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="50"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="36" t="s">
         <v>557</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="52"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="43"/>
       <c r="C18" s="7" t="s">
         <v>11</v>
@@ -6335,10 +6462,12 @@
       <c r="E18" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="60" t="s">
         <v>532</v>
       </c>
       <c r="B19" s="43"/>
@@ -6352,7 +6481,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="52"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="43"/>
       <c r="C20" s="53"/>
       <c r="D20" s="36" t="s">
@@ -6362,7 +6491,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="52"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="43"/>
       <c r="C21" s="53" t="s">
         <v>18</v>
@@ -6374,7 +6503,7 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="52"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="43"/>
       <c r="C22" s="53"/>
       <c r="D22" s="36" t="s">
@@ -6384,7 +6513,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="52"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="43"/>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -6396,7 +6525,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="60" t="s">
         <v>533</v>
       </c>
       <c r="B24" s="43"/>
@@ -6406,309 +6535,383 @@
       <c r="D24" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>576</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="52"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="43"/>
       <c r="C25" s="53"/>
       <c r="D25" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>577</v>
+      </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="52"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="53" t="s">
-        <v>18</v>
-      </c>
+      <c r="C26" s="53"/>
       <c r="D26" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="10" t="s">
+        <v>578</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="52"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="43"/>
       <c r="C27" s="53"/>
       <c r="D27" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>579</v>
+      </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="52"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="D28" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>580</v>
+      </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A29" s="52"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="60"/>
       <c r="B29" s="43"/>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="60"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="52" t="s">
+      <c r="D30" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A31" s="60"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="52"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="52"/>
       <c r="B32" s="43"/>
       <c r="C32" s="53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>584</v>
+      </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="52"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="43"/>
       <c r="C33" s="53"/>
       <c r="D33" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>585</v>
+      </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="52"/>
+    <row r="34" spans="1:6" ht="31.2">
+      <c r="A34" s="60"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
+      <c r="C34" s="53" t="s">
+        <v>587</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="52" t="s">
-        <v>535</v>
-      </c>
+      <c r="A35" s="60"/>
       <c r="B35" s="43"/>
-      <c r="C35" s="53" t="s">
-        <v>17</v>
-      </c>
+      <c r="C35" s="53"/>
       <c r="D35" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="52"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="43"/>
       <c r="C36" s="53"/>
       <c r="D36" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="52"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="43"/>
       <c r="C37" s="53" t="s">
-        <v>18</v>
+        <v>586</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="52"/>
+      <c r="E37" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.2">
+      <c r="A38" s="60"/>
       <c r="B38" s="43"/>
       <c r="C38" s="53"/>
       <c r="D38" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="52"/>
+      <c r="E38" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.2">
+      <c r="A39" s="60"/>
       <c r="B39" s="43"/>
-      <c r="C39" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="C39" s="53"/>
       <c r="D39" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="52" t="s">
-        <v>536</v>
-      </c>
+      <c r="A40" s="60"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C40" s="53"/>
       <c r="D40" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="52"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="53" t="s">
-        <v>44</v>
-      </c>
+      <c r="C41" s="53"/>
       <c r="D41" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="52"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="43"/>
       <c r="C42" s="53"/>
       <c r="D42" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="52"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="53"/>
+      <c r="C43" s="53" t="s">
+        <v>590</v>
+      </c>
       <c r="D43" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="52" t="s">
-        <v>45</v>
-      </c>
+      <c r="A44" s="60"/>
       <c r="B44" s="43"/>
-      <c r="C44" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C44" s="53"/>
       <c r="D44" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="52"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="53" t="s">
-        <v>46</v>
-      </c>
+      <c r="C45" s="53"/>
       <c r="D45" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="52"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="43"/>
       <c r="C46" s="53"/>
       <c r="D46" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="52"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="43"/>
       <c r="C47" s="53"/>
       <c r="D47" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="52"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="63" t="s">
+        <v>591</v>
+      </c>
       <c r="D48" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="52"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="43"/>
-      <c r="C49" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="C49" s="62"/>
       <c r="D49" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="52" t="s">
-        <v>537</v>
-      </c>
+      <c r="A50" s="60"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="55"/>
+      <c r="C50" s="49" t="s">
+        <v>592</v>
+      </c>
       <c r="D50" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="52"/>
+      <c r="A51" s="60" t="s">
+        <v>535</v>
+      </c>
       <c r="B51" s="43"/>
-      <c r="C51" s="55"/>
+      <c r="C51" s="53" t="s">
+        <v>17</v>
+      </c>
       <c r="D51" s="36" t="s">
         <v>557</v>
       </c>
@@ -6716,7 +6919,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="52"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="43"/>
       <c r="C52" s="53"/>
       <c r="D52" s="36" t="s">
@@ -6726,9 +6929,11 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="52"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="43"/>
-      <c r="C53" s="53"/>
+      <c r="C53" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="D53" s="36" t="s">
         <v>557</v>
       </c>
@@ -6736,7 +6941,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="52"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="43"/>
       <c r="C54" s="53"/>
       <c r="D54" s="36" t="s">
@@ -6746,9 +6951,11 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="52"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="53"/>
+      <c r="C55" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D55" s="36" t="s">
         <v>557</v>
       </c>
@@ -6756,9 +6963,13 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="52"/>
+      <c r="A56" s="60" t="s">
+        <v>536</v>
+      </c>
       <c r="B56" s="43"/>
-      <c r="C56" s="53"/>
+      <c r="C56" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D56" s="36" t="s">
         <v>557</v>
       </c>
@@ -6766,9 +6977,11 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="52"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="53"/>
+      <c r="C57" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="D57" s="36" t="s">
         <v>557</v>
       </c>
@@ -6776,7 +6989,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="52"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="43"/>
       <c r="C58" s="53"/>
       <c r="D58" s="36" t="s">
@@ -6786,7 +6999,7 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="52"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="43"/>
       <c r="C59" s="53"/>
       <c r="D59" s="36" t="s">
@@ -6796,9 +7009,13 @@
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="52"/>
+      <c r="A60" s="60" t="s">
+        <v>45</v>
+      </c>
       <c r="B60" s="43"/>
-      <c r="C60" s="53"/>
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D60" s="36" t="s">
         <v>557</v>
       </c>
@@ -6806,9 +7023,11 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="52"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="53" t="s">
+        <v>46</v>
+      </c>
       <c r="D61" s="36" t="s">
         <v>557</v>
       </c>
@@ -6816,9 +7035,9 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="52"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="43"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="36" t="s">
         <v>557</v>
       </c>
@@ -6826,7 +7045,7 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="52"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="43"/>
       <c r="C63" s="53"/>
       <c r="D63" s="36" t="s">
@@ -6836,9 +7055,9 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="52"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="43"/>
-      <c r="C64" s="53"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="36" t="s">
         <v>557</v>
       </c>
@@ -6846,9 +7065,11 @@
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="52"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="53"/>
+      <c r="C65" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="D65" s="36" t="s">
         <v>557</v>
       </c>
@@ -6856,9 +7077,11 @@
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="52"/>
+      <c r="A66" s="60" t="s">
+        <v>537</v>
+      </c>
       <c r="B66" s="43"/>
-      <c r="C66" s="53"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="36" t="s">
         <v>557</v>
       </c>
@@ -6866,9 +7089,9 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="52"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="43"/>
-      <c r="C67" s="53"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="36" t="s">
         <v>557</v>
       </c>
@@ -6876,7 +7099,7 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="52"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="43"/>
       <c r="C68" s="53"/>
       <c r="D68" s="36" t="s">
@@ -6886,9 +7109,9 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="52"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="55"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="36" t="s">
         <v>557</v>
       </c>
@@ -6896,9 +7119,9 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="52"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="43"/>
-      <c r="C70" s="55"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="36" t="s">
         <v>557</v>
       </c>
@@ -6906,9 +7129,9 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="52"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="55"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="36" t="s">
         <v>557</v>
       </c>
@@ -6916,9 +7139,9 @@
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="52"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="55"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="36" t="s">
         <v>557</v>
       </c>
@@ -6926,9 +7149,9 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="52"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="43"/>
-      <c r="C73" s="55"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="36" t="s">
         <v>557</v>
       </c>
@@ -6936,9 +7159,9 @@
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="52"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="43"/>
-      <c r="C74" s="55"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="36" t="s">
         <v>557</v>
       </c>
@@ -6946,7 +7169,7 @@
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="52"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="43"/>
       <c r="C75" s="53"/>
       <c r="D75" s="36" t="s">
@@ -6956,7 +7179,7 @@
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="52"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="43"/>
       <c r="C76" s="53"/>
       <c r="D76" s="36" t="s">
@@ -6966,9 +7189,9 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="52"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="53"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="36" t="s">
         <v>557</v>
       </c>
@@ -6976,9 +7199,9 @@
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="52"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="43"/>
-      <c r="C78" s="53"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="36" t="s">
         <v>557</v>
       </c>
@@ -6986,7 +7209,7 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="52"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="43"/>
       <c r="C79" s="53"/>
       <c r="D79" s="36" t="s">
@@ -6996,7 +7219,7 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="52"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="43"/>
       <c r="C80" s="53"/>
       <c r="D80" s="36" t="s">
@@ -7006,7 +7229,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="52"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="43"/>
       <c r="C81" s="53"/>
       <c r="D81" s="36" t="s">
@@ -7016,11 +7239,9 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="56" t="s">
-        <v>538</v>
-      </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="7"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="36" t="s">
         <v>557</v>
       </c>
@@ -7028,8 +7249,8 @@
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="56"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="53"/>
       <c r="D83" s="36" t="s">
         <v>557</v>
@@ -7038,8 +7259,8 @@
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="56"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="53"/>
       <c r="D84" s="36" t="s">
         <v>557</v>
@@ -7048,9 +7269,9 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="56"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="53"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="59"/>
       <c r="D85" s="36" t="s">
         <v>557</v>
       </c>
@@ -7058,9 +7279,9 @@
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="56"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="53"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="59"/>
       <c r="D86" s="36" t="s">
         <v>557</v>
       </c>
@@ -7068,9 +7289,9 @@
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="56"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="53"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="59"/>
       <c r="D87" s="36" t="s">
         <v>557</v>
       </c>
@@ -7078,170 +7299,170 @@
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="56"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="53"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="59"/>
       <c r="D88" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="56"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="53"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="59"/>
       <c r="D89" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="56"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="53"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="59"/>
       <c r="D90" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="56"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="53"/>
       <c r="D91" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="56"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="53"/>
       <c r="D92" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="56"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="53"/>
       <c r="D93" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="56"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="53"/>
       <c r="D94" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="56"/>
-      <c r="B95" s="42"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="53"/>
       <c r="D95" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="54" t="s">
-        <v>539</v>
-      </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="53"/>
       <c r="D96" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="54"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="53"/>
       <c r="D97" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="54"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="53"/>
+      <c r="A98" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="54"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="53"/>
       <c r="D99" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="54"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="53"/>
       <c r="D100" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="54"/>
-      <c r="B101" s="41"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="53"/>
       <c r="D101" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="54"/>
-      <c r="B102" s="41"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="53"/>
       <c r="D102" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="54"/>
-      <c r="B103" s="41"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="53"/>
       <c r="D103" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="54"/>
-      <c r="B104" s="41"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="53"/>
       <c r="D104" s="36" t="s">
         <v>557</v>
@@ -7250,8 +7471,8 @@
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="54"/>
-      <c r="B105" s="41"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="53"/>
       <c r="D105" s="36" t="s">
         <v>557</v>
@@ -7260,8 +7481,8 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="54"/>
-      <c r="B106" s="41"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="53"/>
       <c r="D106" s="36" t="s">
         <v>557</v>
@@ -7270,8 +7491,8 @@
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="54"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="53"/>
       <c r="D107" s="36" t="s">
         <v>557</v>
@@ -7280,8 +7501,8 @@
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="54"/>
-      <c r="B108" s="41"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="53"/>
       <c r="D108" s="36" t="s">
         <v>557</v>
@@ -7289,137 +7510,303 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="31.2">
-      <c r="A109" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="109" spans="1:6">
+      <c r="A109" s="58"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="54"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="53"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D110" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="54"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A111" s="58"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="54"/>
+      <c r="A112" s="54" t="s">
+        <v>539</v>
+      </c>
       <c r="B112" s="41"/>
-      <c r="C112" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="54"/>
       <c r="B113" s="41"/>
-      <c r="C113" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C113" s="53"/>
+      <c r="D113" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="54"/>
       <c r="B114" s="41"/>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="53"/>
+      <c r="D114" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="54"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="54"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="54"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="54"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="54"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="54"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="54"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="54"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="54"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="54"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" ht="31.2">
+      <c r="A125" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="41"/>
+      <c r="C125" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="54"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="54"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="54"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="54"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="54"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="17" t="s">
+      <c r="D130" s="7"/>
+      <c r="E130" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F130" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="C115" s="16"/>
+    <row r="131" spans="1:6">
+      <c r="C131" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="A96:A108"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="A82:A95"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="A50:A81"/>
+  <mergeCells count="46">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A32:A50"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A66:A97"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C61:C63"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="A112:A124"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="A98:A111"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C106"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7431,7 +7818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B21E82-7B17-45A9-9C46-BBB545CF67E0}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G5:G6"/>
     </sheetView>
@@ -7484,18 +7871,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -7773,18 +8160,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="20" t="s">
@@ -8461,18 +8848,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
     </row>
     <row r="40" spans="1:10" ht="27.6">
       <c r="A40" s="20" t="s">
@@ -8973,18 +9360,18 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
     </row>
     <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="20" t="s">
@@ -9256,18 +9643,18 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="10" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
     </row>
     <row r="70" spans="1:10" ht="24.6" customHeight="1">
       <c r="A70" s="20" t="s">
@@ -9400,18 +9787,18 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="10" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="57"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
     </row>
     <row r="76" spans="1:10" ht="56.4" customHeight="1">
       <c r="A76" s="20" t="s">
@@ -9518,18 +9905,18 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="10" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
     </row>
     <row r="81" spans="1:10" ht="41.4">
       <c r="A81" s="20" t="s">
@@ -9740,18 +10127,18 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="10" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
     </row>
     <row r="90" spans="1:10" ht="27.6">
       <c r="A90" s="20" t="s">
@@ -9988,18 +10375,18 @@
       </c>
     </row>
     <row r="99" spans="1:10" s="10" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="57"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
     </row>
     <row r="100" spans="1:10" ht="55.2">
       <c r="A100" s="20" t="s">
@@ -10210,18 +10597,18 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
     </row>
     <row r="109" spans="1:10" ht="27.6">
       <c r="A109" s="20" t="s">
